--- a/Aulas_MAF105/Aula1/CompanhiaMB.xlsx
+++ b/Aulas_MAF105/Aula1/CompanhiaMB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="41">
   <si>
     <t>Estado Civil</t>
   </si>
@@ -83,40 +83,28 @@
     <t>\\</t>
   </si>
   <si>
-    <t>Solteiro</t>
+    <t>Categorias</t>
   </si>
   <si>
-    <t>Casado</t>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>porcentagem</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Grau de Instrução</t>
   </si>
   <si>
-    <t>Fundamental</t>
-  </si>
-  <si>
-    <t>Médio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Número de filhos</t>
-  </si>
-  <si>
-    <t>Superior</t>
-  </si>
-  <si>
-    <t>Minimo</t>
-  </si>
-  <si>
-    <t>Maximo</t>
+    <t>Máximo</t>
   </si>
   <si>
     <t>Média</t>
-  </si>
-  <si>
-    <t>Tamanho(n)</t>
   </si>
   <si>
     <t>Est. Classes</t>
@@ -128,32 +116,41 @@
     <t>Incremento</t>
   </si>
   <si>
-    <t>Desvio Pad</t>
+    <t>Desv. Pad</t>
   </si>
   <si>
-    <t>Incremento 2</t>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Tamanho (n)</t>
+  </si>
+  <si>
+    <t>Salário (x Sal. Min)</t>
+  </si>
+  <si>
+    <t>Amp. Classe</t>
   </si>
   <si>
     <t>Corte</t>
   </si>
   <si>
-    <t>Freq</t>
+    <t>Ramos</t>
   </si>
   <si>
-    <t>Pontos</t>
+    <t>Folhas</t>
   </si>
   <si>
-    <t>Valor</t>
+    <t>faacm</t>
   </si>
   <si>
-    <t>FDM</t>
+    <t>fracm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +172,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,12 +220,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -235,17 +282,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -268,12 +317,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,77 +479,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -407,6 +587,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -449,11 +654,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$O$16</c:f>
+              <c:f>Plan1!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Freq</c:v>
+                  <c:v>fa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -468,53 +673,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Plan1!$N$17:$N$22</c:f>
+              <c:f>Plan1!$N$10:$N$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.2166666666666668</c:v>
+                  <c:v>5.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.433333333333334</c:v>
+                  <c:v>9.7900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.65</c:v>
+                  <c:v>13.650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.866666666666667</c:v>
+                  <c:v>17.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.083333333333336</c:v>
+                  <c:v>21.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.3</c:v>
+                  <c:v>25.230000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$O$17:$O$22</c:f>
+              <c:f>Plan1!$O$10:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -531,19 +794,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="30"/>
+        <c:gapWidth val="20"/>
         <c:overlap val="-27"/>
-        <c:axId val="467930352"/>
-        <c:axId val="467931528"/>
+        <c:axId val="399202112"/>
+        <c:axId val="399198584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="467930352"/>
+        <c:axId val="399202112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -580,7 +843,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467931528"/>
+        <c:crossAx val="399198584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -588,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467931528"/>
+        <c:axId val="399198584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +902,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467930352"/>
+        <c:crossAx val="399202112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,122 +965,586 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Gráfico de Pizza</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$N$10:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.230000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$P$10:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
-          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0469816272965886E-2"/>
-          <c:y val="2.5428331875182269E-2"/>
-          <c:w val="0.8479352580927384"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="0.21148425196850393"/>
+          <c:y val="0.8524300087489064"/>
+          <c:w val="0.47256412612586468"/>
+          <c:h val="6.4883471689887562E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ogiva - faacm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4020693350831146"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$O$16</c:f>
+              <c:f>Plan1!$Q$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Freq</c:v>
+                  <c:v>faacm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="minus"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="1"/>
-            <c:val val="100"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="127000" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                    <a:alpha val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:errBars>
-          <c:xVal>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
             <c:numRef>
-              <c:f>Plan1!$N$17:$N$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.2166666666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.083333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Plan1!$O$17:$O$22</c:f>
+              <c:f>Plan1!$N$10:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>9.7900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>13.650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>17.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>21.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>25.230000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$Q$10:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -827,683 +1554,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467934272"/>
-        <c:axId val="467935840"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>FPM</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Plan1!$R$17:$R$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>4.5361111111111114</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.072222222222222</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6083333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1444444444444439</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2166666666666668</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7527777777777782</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.2888888888888879</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8249999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.3611111111111107</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8972222222222221</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.969444444444445</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.505555555555556</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.041666666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.577777777777778</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.113888888888889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.65</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.18611111111111</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.722222222222221</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.258333333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.794444444444444</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.330555555555556</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17.402777777777779</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.93888888888889</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.475000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.011111111111113</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.547222222222224</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.083333333333332</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.619444444444444</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.155555555555555</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.691666666666666</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.227777777777778</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23.836111111111112</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.37222222222222</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.908333333333331</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25.444444444444443</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.980555555555554</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26.516666666666666</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.052777777777777</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>27.588888888888889</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>28.125</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.661111111111111</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.197222222222223</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30.269444444444442</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>30.805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>31.341666666666665</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31.877777777777776</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32.413888888888891</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>32.950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>33.486111111111114</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>34.022222222222226</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>34.558333333333337</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>35.094444444444449</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>35.630555555555553</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>36.166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>36.702777777777776</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>37.238888888888887</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>37.774999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>38.31111111111111</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>38.847222222222221</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>39.383333333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>39.919444444444444</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40.455555555555556</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>40.991666666666667</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>41.527777777777779</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42.06388888888889</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42.6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43.136111111111113</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43.672222222222224</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44.208333333333329</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44.74444444444444</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>45.280555555555551</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>45.816666666666663</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>46.352777777777774</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>46.888888888888886</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>47.424999999999997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>47.961111111111109</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>48.49722222222222</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>49.033333333333331</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>49.569444444444443</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>50.105555555555554</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>50.641666666666666</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>51.177777777777777</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>51.713888888888889</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>52.25</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>52.786111111111111</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>53.322222222222223</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>53.858333333333334</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>54.394444444444446</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>54.930555555555557</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>55.466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>56.002777777777773</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>56.538888888888884</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>57.074999999999996</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>57.611111111111107</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Plan1!$S$17:$S$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>3.1028475770397586E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6446904377500922E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2230823835494452E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8268873236276315E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4421871089266001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0526906585205292E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6403686224327282E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1862876988288873E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6715957894180384E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.0785892120932568E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.3917790257074784E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.5988674512348609E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6915487528260407E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.6660619164388178E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.5234438725027548E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2694595013492328E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.9142150062400995E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.47149079204006E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.9578552173485478E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.3916385930423522E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.791855714248248E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.1771644351487303E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.5649380158110972E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.9705119890213907E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4066446906772005E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8832072956466441E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4070970351734489E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.9823486010382394E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6104051855528115E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.2905029242124036E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0201206209705329E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.9544977107133784E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.1184680530560276E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.6423869133036377E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4746308463251344E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.5653386791047723E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.8683121959020338E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3422174762767252E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.5118508261275562E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.649299163292979E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.5851697273821058E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.1189158739176155E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.0927656872950408E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.3851801276566062E-4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.0440009570020335E-5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.8248352716092243E-5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.7006277153207371E-5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.3191874236100344E-5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.4337221619160989E-5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.7430477560682488E-6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.2593176714057407E-6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.1207908055827327E-6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.8267058216608562E-6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0547299270150139E-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.0073457172521041E-7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.3751469317222889E-7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.8705591372989595E-7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.0226308799905979E-7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.5148672608571495E-8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.933728538839023E-8</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.5394780053405221E-8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.9688518398249191E-9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.0689908863730104E-9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.0494927337898716E-9</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.0182976691523043E-9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4.9908189730091192E-10</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.4128903478108116E-10</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1507263444026756E-10</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.4134636691247029E-11</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.5121588539181667E-11</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.1499730714386075E-11</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.1927443793313395E-12</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.3129961979204713E-12</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.0162992250472103E-12</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.4049093050794241E-13</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.8833066868833231E-13</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.9428036530540623E-14</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.3044204888345509E-14</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.3560805491018738E-14</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.4896463570682697E-15</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.1921584932049371E-15</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.6351171483679956E-16</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.3553143798787757E-16</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.2860767984855557E-16</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.8626083291983818E-17</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.8135952802026471E-17</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.6723706769089518E-18</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.4215233115874945E-18</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.6689369528143836E-19</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.0613411946327699E-19</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.0664152026376834E-19</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.6644569229157645E-20</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.2421144519774623E-20</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.1531948790622856E-21</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.3698458736757369E-21</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.4568683197253461E-22</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.4303970335908094E-22</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.5284763056822045E-23</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.4142178015004769E-23</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.3566151813566707E-24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="576795304"/>
-        <c:axId val="576794520"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="467934272"/>
+        <c:gapWidth val="30"/>
+        <c:overlap val="-27"/>
+        <c:axId val="399195448"/>
+        <c:axId val="399201720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="399195448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1512,8 +1575,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1540,12 +1603,15 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467935840"/>
+        <c:crossAx val="399201720"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="467935840"/>
+        <c:axId val="399201720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1619,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1571,14 +1637,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1602,81 +1662,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467934272"/>
+        <c:crossAx val="399195448"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="576794520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="576795304"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="576795304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576794520"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1798,6 +1791,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2302,7 +2335,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2329,8 +2362,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2359,7 +2392,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2410,6 +2443,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2420,18 +2460,25 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2466,7 +2513,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2787,17 +2834,509 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2821,20 +3360,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2851,20 +3390,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>132290</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>125940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>306916</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2874,6 +3413,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3169,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,63 +3754,72 @@
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="J1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="H2" s="3"/>
+      <c r="J2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3262,23 +3840,27 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="J3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10">
+        <f>COUNTIF(C3:C38,"="&amp;J3)</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="10">
+        <f>K3/$K$6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M3" s="10">
+        <f>L3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3299,28 +3881,27 @@
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="25">
-        <f>COUNTIF($B$3:$B$38,"="&amp;J3)</f>
-        <v>16</v>
-      </c>
-      <c r="K4" s="25">
-        <f>COUNTIF($B$3:$B$38,"="&amp;K3)</f>
-        <v>20</v>
-      </c>
-      <c r="L4" s="25">
-        <f>SUM(J4,K4)</f>
-        <v>36</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="J4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K5" si="0">COUNTIF(C4:C39,"="&amp;J4)</f>
+        <v>18</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L5" si="1">K4/$K$6</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M5" si="2">L4*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3341,19 +3922,27 @@
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="J5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3374,23 +3963,27 @@
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="J6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="10">
+        <f>SUM(K3:K5)</f>
+        <v>36</v>
+      </c>
+      <c r="L6" s="10">
+        <f>SUM(L3:L5)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M6" s="10">
+        <f>SUM(M3:M5)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3411,25 +4004,12 @@
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    </row>
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3450,31 +4030,24 @@
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="25">
-        <f>COUNTIF($C$3:$C$38,"="&amp;J7)</f>
-        <v>12</v>
-      </c>
-      <c r="K8" s="25">
-        <f>COUNTIF($C$3:$C$38,"="&amp;K7)</f>
-        <v>18</v>
-      </c>
-      <c r="L8" s="25">
-        <f>COUNTIF($C$3:$C$38,"="&amp;L7)</f>
-        <v>6</v>
-      </c>
-      <c r="M8" s="25">
-        <f>SUM(J8:L8)</f>
-        <v>36</v>
-      </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="J8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="M8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3495,19 +4068,37 @@
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="J9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="17">
+        <f>MIN(E3:E38)</f>
+        <v>4</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3528,22 +4119,42 @@
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="K10" s="17">
+        <f>MAX(E3:E38)</f>
+        <v>23.3</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <f>($K$9-($K$15/2))+M10*$K$15</f>
+        <v>5.93</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="array" ref="O10:O15">FREQUENCY(E3:E38,N10:N15)</f>
+        <v>4</v>
+      </c>
+      <c r="P10" s="10">
+        <f>O10/$O$16</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q10" s="10">
+        <f>O10</f>
+        <v>4</v>
+      </c>
+      <c r="R10" s="10">
+        <f>P10</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3564,36 +4175,41 @@
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0</v>
-      </c>
-      <c r="L11" s="25">
-        <v>1</v>
-      </c>
-      <c r="M11" s="25">
+      <c r="J11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="17">
+        <f>AVERAGE(E3:E38)</f>
+        <v>11.12222222222222</v>
+      </c>
+      <c r="M11" s="10">
         <v>2</v>
       </c>
-      <c r="N11" s="25">
-        <v>3</v>
-      </c>
-      <c r="O11" s="25">
-        <v>4</v>
-      </c>
-      <c r="P11" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="N11" s="15">
+        <f t="shared" ref="N11:N15" si="3">($K$9-($K$15/2))+M11*$K$15</f>
+        <v>9.7900000000000009</v>
+      </c>
+      <c r="O11" s="10">
+        <v>13</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" ref="P11:P15" si="4">O11/$O$16</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" ref="Q11:R15" si="5">O11+Q10</f>
+        <v>17</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="5"/>
+        <v>0.47222222222222221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3614,44 +4230,41 @@
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="25">
-        <f>COUNTIF($D$3:$D$38,"="&amp;J11)</f>
-        <v>16</v>
-      </c>
-      <c r="K12" s="25">
-        <f t="shared" ref="K12:P12" si="0">COUNTIF($D$3:$D$38,"="&amp;K11)</f>
-        <v>4</v>
-      </c>
-      <c r="L12" s="25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M12" s="25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N12" s="25">
-        <f t="shared" si="0"/>
+      <c r="J12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="10">
+        <f>COUNT(E3:E38)</f>
+        <v>36</v>
+      </c>
+      <c r="M12" s="10">
         <v>3</v>
       </c>
-      <c r="O12" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="25">
-        <f>SUM(J12:P12)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="N12" s="15">
+        <f t="shared" si="3"/>
+        <v>13.650000000000002</v>
+      </c>
+      <c r="O12" s="10">
+        <v>9</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="5"/>
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3672,13 +4285,41 @@
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="J13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="10">
+        <f>SQRT(K12)</f>
+        <v>6</v>
+      </c>
+      <c r="M13" s="10">
+        <v>4</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="3"/>
+        <v>17.510000000000002</v>
+      </c>
+      <c r="O13" s="10">
+        <v>7</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="4"/>
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3699,13 +4340,41 @@
       <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="J14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="10">
+        <f>INT(K13)</f>
+        <v>6</v>
+      </c>
+      <c r="M14" s="10">
+        <v>5</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="3"/>
+        <v>21.37</v>
+      </c>
+      <c r="O14" s="10">
+        <v>2</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3726,13 +4395,41 @@
       <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="J15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="10">
+        <f>(K10-K9)/(K14-1)</f>
+        <v>3.8600000000000003</v>
+      </c>
+      <c r="M15" s="10">
+        <v>6</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="3"/>
+        <v>25.230000000000004</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3753,37 +4450,27 @@
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="16">
-        <f>MIN(E3:E38)</f>
-        <v>4</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="J16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="10">
+        <f>_xlfn.STDEV.S(E3:E38)</f>
+        <v>4.5874575038038659</v>
+      </c>
+      <c r="O16" s="10">
+        <f>SUM(O10:O15)</f>
+        <v>36</v>
+      </c>
+      <c r="P16" s="10">
+        <f>SUM(P10:P15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3804,41 +4491,16 @@
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="16">
-        <f>MAX(E3:E38)</f>
-        <v>23.3</v>
-      </c>
-      <c r="M17" s="25">
-        <v>1</v>
-      </c>
-      <c r="N17" s="31">
-        <f>$K$16+M17*$K$22</f>
-        <v>7.2166666666666668</v>
-      </c>
-      <c r="O17" s="25">
-        <f t="array" ref="O17:O22">FREQUENCY(E3:E38,N17:N22)</f>
-        <v>7</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>1</v>
-      </c>
-      <c r="R17" s="22">
-        <f>$K$16+Q17*$K$24</f>
-        <v>4.5361111111111114</v>
-      </c>
-      <c r="S17" s="22">
-        <f>_xlfn.NORM.DIST(R17,$K$18,$K$23,FALSE)</f>
-        <v>3.1028475770397586E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="J17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3859,40 +4521,12 @@
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="16">
-        <f>AVERAGE(E3:E38)</f>
-        <v>11.12222222222222</v>
-      </c>
-      <c r="M18" s="25">
-        <v>2</v>
-      </c>
-      <c r="N18" s="31">
-        <f t="shared" ref="N18:N22" si="1">$K$16+M18*$K$22</f>
-        <v>10.433333333333334</v>
-      </c>
-      <c r="O18" s="25">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>2</v>
-      </c>
-      <c r="R18" s="22">
-        <f t="shared" ref="R18:R81" si="2">$K$16+Q18*$K$24</f>
-        <v>5.072222222222222</v>
-      </c>
-      <c r="S18" s="22">
-        <f t="shared" ref="S18:S81" si="3">_xlfn.NORM.DIST(R18,$K$18,$K$23,FALSE)</f>
-        <v>3.6446904377500922E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3913,40 +4547,12 @@
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="16">
-        <f>COUNT(E3:E38)</f>
-        <v>36</v>
-      </c>
-      <c r="M19" s="25">
-        <v>3</v>
-      </c>
-      <c r="N19" s="31">
-        <f t="shared" si="1"/>
-        <v>13.65</v>
-      </c>
-      <c r="O19" s="25">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>3</v>
-      </c>
-      <c r="R19" s="22">
-        <f t="shared" si="2"/>
-        <v>5.6083333333333334</v>
-      </c>
-      <c r="S19" s="22">
-        <f t="shared" si="3"/>
-        <v>4.2230823835494452E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="19" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3967,40 +4573,12 @@
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="16">
-        <f>SQRT(K19)</f>
-        <v>6</v>
-      </c>
-      <c r="M20" s="25">
-        <v>4</v>
-      </c>
-      <c r="N20" s="31">
-        <f t="shared" si="1"/>
-        <v>16.866666666666667</v>
-      </c>
-      <c r="O20" s="25">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>4</v>
-      </c>
-      <c r="R20" s="22">
-        <f t="shared" si="2"/>
-        <v>6.1444444444444439</v>
-      </c>
-      <c r="S20" s="22">
-        <f t="shared" si="3"/>
-        <v>4.8268873236276315E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4021,39 +4599,12 @@
       <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="16">
-        <v>6</v>
-      </c>
-      <c r="M21" s="25">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31">
-        <f t="shared" si="1"/>
-        <v>20.083333333333336</v>
-      </c>
-      <c r="O21" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>5</v>
-      </c>
-      <c r="R21" s="22">
-        <f t="shared" si="2"/>
-        <v>6.6805555555555554</v>
-      </c>
-      <c r="S21" s="22">
-        <f t="shared" si="3"/>
-        <v>5.4421871089266001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4074,40 +4625,12 @@
       <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="16">
-        <f>(K17-K16)/K21</f>
-        <v>3.2166666666666668</v>
-      </c>
-      <c r="M22" s="25">
-        <v>6</v>
-      </c>
-      <c r="N22" s="31">
-        <f t="shared" si="1"/>
-        <v>23.3</v>
-      </c>
-      <c r="O22" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="22">
-        <v>6</v>
-      </c>
-      <c r="R22" s="22">
-        <f t="shared" si="2"/>
-        <v>7.2166666666666668</v>
-      </c>
-      <c r="S22" s="22">
-        <f t="shared" si="3"/>
-        <v>6.0526906585205292E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4128,30 +4651,12 @@
       <c r="H23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="16">
-        <f>_xlfn.STDEV.S(E3:E38)</f>
-        <v>4.5874575038038659</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>7</v>
-      </c>
-      <c r="R23" s="22">
-        <f t="shared" si="2"/>
-        <v>7.7527777777777782</v>
-      </c>
-      <c r="S23" s="22">
-        <f t="shared" si="3"/>
-        <v>6.6403686224327282E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4172,30 +4677,12 @@
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="16">
-        <f>(K17-K16)/36</f>
-        <v>0.53611111111111109</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>8</v>
-      </c>
-      <c r="R24" s="22">
-        <f t="shared" si="2"/>
-        <v>8.2888888888888879</v>
-      </c>
-      <c r="S24" s="22">
-        <f t="shared" si="3"/>
-        <v>7.1862876988288873E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4216,24 +4703,12 @@
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="Q25" s="22">
-        <v>9</v>
-      </c>
-      <c r="R25" s="22">
-        <f t="shared" si="2"/>
-        <v>8.8249999999999993</v>
-      </c>
-      <c r="S25" s="22">
-        <f t="shared" si="3"/>
-        <v>7.6715957894180384E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4254,24 +4729,12 @@
       <c r="H26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="Q26" s="22">
-        <v>10</v>
-      </c>
-      <c r="R26" s="22">
-        <f t="shared" si="2"/>
-        <v>9.3611111111111107</v>
-      </c>
-      <c r="S26" s="22">
-        <f t="shared" si="3"/>
-        <v>8.0785892120932568E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4292,24 +4755,12 @@
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="Q27" s="22">
-        <v>11</v>
-      </c>
-      <c r="R27" s="22">
-        <f t="shared" si="2"/>
-        <v>9.8972222222222221</v>
-      </c>
-      <c r="S27" s="22">
-        <f t="shared" si="3"/>
-        <v>8.3917790257074784E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4330,24 +4781,12 @@
       <c r="H28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="Q28" s="22">
-        <v>12</v>
-      </c>
-      <c r="R28" s="22">
-        <f t="shared" si="2"/>
-        <v>10.433333333333334</v>
-      </c>
-      <c r="S28" s="22">
-        <f t="shared" si="3"/>
-        <v>8.5988674512348609E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4368,24 +4807,12 @@
       <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="Q29" s="22">
-        <v>13</v>
-      </c>
-      <c r="R29" s="22">
-        <f t="shared" si="2"/>
-        <v>10.969444444444445</v>
-      </c>
-      <c r="S29" s="22">
-        <f t="shared" si="3"/>
-        <v>8.6915487528260407E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4406,24 +4833,12 @@
       <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="Q30" s="22">
-        <v>14</v>
-      </c>
-      <c r="R30" s="22">
-        <f t="shared" si="2"/>
-        <v>11.505555555555556</v>
-      </c>
-      <c r="S30" s="22">
-        <f t="shared" si="3"/>
-        <v>8.6660619164388178E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4444,24 +4859,12 @@
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="Q31" s="22">
-        <v>15</v>
-      </c>
-      <c r="R31" s="22">
-        <f t="shared" si="2"/>
-        <v>12.041666666666666</v>
-      </c>
-      <c r="S31" s="22">
-        <f t="shared" si="3"/>
-        <v>8.5234438725027548E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4482,24 +4885,12 @@
       <c r="H32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="Q32" s="22">
-        <v>16</v>
-      </c>
-      <c r="R32" s="22">
-        <f t="shared" si="2"/>
-        <v>12.577777777777778</v>
-      </c>
-      <c r="S32" s="22">
-        <f t="shared" si="3"/>
-        <v>8.2694595013492328E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4520,24 +4911,12 @@
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="Q33" s="22">
-        <v>17</v>
-      </c>
-      <c r="R33" s="22">
-        <f t="shared" si="2"/>
-        <v>13.113888888888889</v>
-      </c>
-      <c r="S33" s="22">
-        <f t="shared" si="3"/>
-        <v>7.9142150062400995E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4558,24 +4937,12 @@
       <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="Q34" s="22">
-        <v>18</v>
-      </c>
-      <c r="R34" s="22">
-        <f t="shared" si="2"/>
-        <v>13.65</v>
-      </c>
-      <c r="S34" s="22">
-        <f t="shared" si="3"/>
-        <v>7.47149079204006E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4596,24 +4963,12 @@
       <c r="H35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="16"/>
-      <c r="Q35" s="22">
-        <v>19</v>
-      </c>
-      <c r="R35" s="22">
-        <f t="shared" si="2"/>
-        <v>14.18611111111111</v>
-      </c>
-      <c r="S35" s="22">
-        <f t="shared" si="3"/>
-        <v>6.9578552173485478E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4634,24 +4989,12 @@
       <c r="H36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="Q36" s="22">
-        <v>20</v>
-      </c>
-      <c r="R36" s="22">
-        <f t="shared" si="2"/>
-        <v>14.722222222222221</v>
-      </c>
-      <c r="S36" s="22">
-        <f t="shared" si="3"/>
-        <v>6.3916385930423522E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+    </row>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -4672,24 +5015,12 @@
       <c r="H37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="18"/>
-      <c r="Q37" s="22">
-        <v>21</v>
-      </c>
-      <c r="R37" s="22">
-        <f t="shared" si="2"/>
-        <v>15.258333333333333</v>
-      </c>
-      <c r="S37" s="22">
-        <f t="shared" si="3"/>
-        <v>5.791855714248248E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -4710,1046 +5041,311 @@
       <c r="H38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="L38" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L39" s="24">
+        <v>1</v>
+      </c>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L40" s="24">
+        <v>2</v>
+      </c>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="26"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L41" s="24">
+        <v>3</v>
+      </c>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L42" s="24">
+        <v>4</v>
+      </c>
+      <c r="M42" s="22">
+        <v>4</v>
+      </c>
+      <c r="N42" s="21">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O42" s="25"/>
+      <c r="P42" s="26"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L43" s="24">
+        <v>5</v>
+      </c>
+      <c r="M43" s="22">
+        <v>5.25</v>
+      </c>
+      <c r="N43" s="21">
+        <v>5.73</v>
+      </c>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" s="24">
+        <v>6</v>
+      </c>
+      <c r="M44" s="22">
+        <v>6.26</v>
+      </c>
+      <c r="N44" s="21">
+        <v>6.66</v>
+      </c>
+      <c r="O44" s="21">
+        <v>6.86</v>
+      </c>
+      <c r="P44" s="26"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L45" s="24">
+        <v>7</v>
+      </c>
+      <c r="M45" s="22">
+        <v>7.39</v>
+      </c>
+      <c r="N45" s="21">
+        <v>7.59</v>
+      </c>
+      <c r="O45" s="21">
+        <v>7.44</v>
+      </c>
+      <c r="P45" s="26"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L46" s="24">
+        <v>8</v>
+      </c>
+      <c r="M46" s="22">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="N46" s="21">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="O46" s="21">
+        <v>8.74</v>
+      </c>
+      <c r="P46" s="27">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L47" s="24">
+        <v>9</v>
+      </c>
+      <c r="M47" s="22">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="N47" s="21">
+        <v>9.35</v>
+      </c>
+      <c r="O47" s="21">
+        <v>9.77</v>
+      </c>
+      <c r="P47" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L48" s="24">
+        <v>10</v>
+      </c>
+      <c r="M48" s="22">
+        <v>10.53</v>
+      </c>
+      <c r="N48" s="21">
+        <v>10.76</v>
+      </c>
+      <c r="O48" s="25"/>
+      <c r="P48" s="26"/>
+    </row>
+    <row r="49" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L49" s="24">
+        <v>11</v>
+      </c>
+      <c r="M49" s="22">
+        <v>11.06</v>
+      </c>
+      <c r="N49" s="21">
+        <v>11.59</v>
+      </c>
+      <c r="O49" s="25"/>
+      <c r="P49" s="26"/>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L50" s="24">
+        <v>12</v>
+      </c>
+      <c r="M50" s="22">
+        <v>12</v>
+      </c>
+      <c r="N50" s="21">
+        <v>12.79</v>
+      </c>
+      <c r="O50" s="25"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L51" s="24">
+        <v>13</v>
+      </c>
+      <c r="M51" s="22">
+        <v>13.23</v>
+      </c>
+      <c r="N51" s="21">
+        <v>13.6</v>
+      </c>
+      <c r="O51" s="21">
+        <v>13.85</v>
+      </c>
+      <c r="P51" s="28"/>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L52" s="24">
+        <v>14</v>
+      </c>
+      <c r="M52" s="22">
+        <v>14.69</v>
+      </c>
+      <c r="N52" s="21">
+        <v>14.71</v>
+      </c>
+      <c r="O52" s="25"/>
+      <c r="P52" s="26"/>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L53" s="24">
+        <v>15</v>
+      </c>
+      <c r="M53" s="22">
+        <v>15.99</v>
+      </c>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="26"/>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L54" s="24">
+        <v>16</v>
+      </c>
+      <c r="M54" s="22">
+        <v>16.22</v>
+      </c>
+      <c r="N54" s="21">
+        <v>16.61</v>
+      </c>
+      <c r="O54" s="25"/>
+      <c r="P54" s="26"/>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L55" s="24">
+        <v>17</v>
+      </c>
+      <c r="M55" s="22">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="26"/>
+    </row>
+    <row r="56" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L56" s="24">
+        <v>18</v>
+      </c>
+      <c r="M56" s="22">
+        <v>18.75</v>
+      </c>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="26"/>
+    </row>
+    <row r="57" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L57" s="24">
+        <v>19</v>
+      </c>
+      <c r="M57" s="22">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="26"/>
+    </row>
+    <row r="58" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L58" s="24">
+        <v>20</v>
+      </c>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="26"/>
+    </row>
+    <row r="59" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L59" s="24">
+        <v>21</v>
+      </c>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="26"/>
+    </row>
+    <row r="60" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L60" s="24">
         <v>22</v>
       </c>
-      <c r="R38" s="22">
-        <f t="shared" si="2"/>
-        <v>15.794444444444444</v>
-      </c>
-      <c r="S38" s="22">
-        <f t="shared" si="3"/>
-        <v>5.1771644351487303E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q39" s="22">
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="26"/>
+    </row>
+    <row r="61" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L61" s="24">
         <v>23</v>
       </c>
-      <c r="R39" s="22">
-        <f t="shared" si="2"/>
-        <v>16.330555555555556</v>
-      </c>
-      <c r="S39" s="22">
-        <f t="shared" si="3"/>
-        <v>4.5649380158110972E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q40" s="22">
+      <c r="M61" s="22">
+        <v>23.3</v>
+      </c>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="26"/>
+    </row>
+    <row r="62" spans="12:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="29">
         <v>24</v>
       </c>
-      <c r="R40" s="22">
-        <f t="shared" si="2"/>
-        <v>16.866666666666667</v>
-      </c>
-      <c r="S40" s="22">
-        <f t="shared" si="3"/>
-        <v>3.9705119890213907E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q41" s="22">
-        <v>25</v>
-      </c>
-      <c r="R41" s="22">
-        <f t="shared" si="2"/>
-        <v>17.402777777777779</v>
-      </c>
-      <c r="S41" s="22">
-        <f t="shared" si="3"/>
-        <v>3.4066446906772005E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="22">
-        <v>26</v>
-      </c>
-      <c r="R42" s="22">
-        <f t="shared" si="2"/>
-        <v>17.93888888888889</v>
-      </c>
-      <c r="S42" s="22">
-        <f t="shared" si="3"/>
-        <v>2.8832072956466441E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q43" s="22">
-        <v>27</v>
-      </c>
-      <c r="R43" s="22">
-        <f t="shared" si="2"/>
-        <v>18.475000000000001</v>
-      </c>
-      <c r="S43" s="22">
-        <f t="shared" si="3"/>
-        <v>2.4070970351734489E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q44" s="22">
-        <v>28</v>
-      </c>
-      <c r="R44" s="22">
-        <f t="shared" si="2"/>
-        <v>19.011111111111113</v>
-      </c>
-      <c r="S44" s="22">
-        <f t="shared" si="3"/>
-        <v>1.9823486010382394E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q45" s="22">
-        <v>29</v>
-      </c>
-      <c r="R45" s="22">
-        <f t="shared" si="2"/>
-        <v>19.547222222222224</v>
-      </c>
-      <c r="S45" s="22">
-        <f t="shared" si="3"/>
-        <v>1.6104051855528115E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q46" s="22">
-        <v>30</v>
-      </c>
-      <c r="R46" s="22">
-        <f t="shared" si="2"/>
-        <v>20.083333333333332</v>
-      </c>
-      <c r="S46" s="22">
-        <f t="shared" si="3"/>
-        <v>1.2905029242124036E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q47" s="22">
-        <v>31</v>
-      </c>
-      <c r="R47" s="22">
-        <f t="shared" si="2"/>
-        <v>20.619444444444444</v>
-      </c>
-      <c r="S47" s="22">
-        <f t="shared" si="3"/>
-        <v>1.0201206209705329E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q48" s="22">
-        <v>32</v>
-      </c>
-      <c r="R48" s="22">
-        <f t="shared" si="2"/>
-        <v>21.155555555555555</v>
-      </c>
-      <c r="S48" s="22">
-        <f t="shared" si="3"/>
-        <v>7.9544977107133784E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q49" s="22">
-        <v>33</v>
-      </c>
-      <c r="R49" s="22">
-        <f t="shared" si="2"/>
-        <v>21.691666666666666</v>
-      </c>
-      <c r="S49" s="22">
-        <f t="shared" si="3"/>
-        <v>6.1184680530560276E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q50" s="22">
-        <v>34</v>
-      </c>
-      <c r="R50" s="22">
-        <f t="shared" si="2"/>
-        <v>22.227777777777778</v>
-      </c>
-      <c r="S50" s="22">
-        <f t="shared" si="3"/>
-        <v>4.6423869133036377E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q51" s="22">
-        <v>35</v>
-      </c>
-      <c r="R51" s="22">
-        <f t="shared" si="2"/>
-        <v>22.763888888888889</v>
-      </c>
-      <c r="S51" s="22">
-        <f t="shared" si="3"/>
-        <v>3.4746308463251344E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q52" s="22">
-        <v>36</v>
-      </c>
-      <c r="R52" s="22">
-        <f t="shared" si="2"/>
-        <v>23.3</v>
-      </c>
-      <c r="S52" s="22">
-        <f t="shared" si="3"/>
-        <v>2.5653386791047723E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q53" s="22">
-        <v>37</v>
-      </c>
-      <c r="R53" s="22">
-        <f t="shared" si="2"/>
-        <v>23.836111111111112</v>
-      </c>
-      <c r="S53" s="22">
-        <f t="shared" si="3"/>
-        <v>1.8683121959020338E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q54" s="22">
-        <v>38</v>
-      </c>
-      <c r="R54" s="22">
-        <f t="shared" si="2"/>
-        <v>24.37222222222222</v>
-      </c>
-      <c r="S54" s="22">
-        <f t="shared" si="3"/>
-        <v>1.3422174762767252E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q55" s="22">
-        <v>39</v>
-      </c>
-      <c r="R55" s="22">
-        <f t="shared" si="2"/>
-        <v>24.908333333333331</v>
-      </c>
-      <c r="S55" s="22">
-        <f t="shared" si="3"/>
-        <v>9.5118508261275562E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q56" s="22">
-        <v>40</v>
-      </c>
-      <c r="R56" s="22">
-        <f t="shared" si="2"/>
-        <v>25.444444444444443</v>
-      </c>
-      <c r="S56" s="22">
-        <f t="shared" si="3"/>
-        <v>6.649299163292979E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q57" s="22">
-        <v>41</v>
-      </c>
-      <c r="R57" s="22">
-        <f t="shared" si="2"/>
-        <v>25.980555555555554</v>
-      </c>
-      <c r="S57" s="22">
-        <f t="shared" si="3"/>
-        <v>4.5851697273821058E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q58" s="22">
-        <v>42</v>
-      </c>
-      <c r="R58" s="22">
-        <f t="shared" si="2"/>
-        <v>26.516666666666666</v>
-      </c>
-      <c r="S58" s="22">
-        <f t="shared" si="3"/>
-        <v>3.1189158739176155E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q59" s="22">
-        <v>43</v>
-      </c>
-      <c r="R59" s="22">
-        <f t="shared" si="2"/>
-        <v>27.052777777777777</v>
-      </c>
-      <c r="S59" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0927656872950408E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q60" s="22">
-        <v>44</v>
-      </c>
-      <c r="R60" s="22">
-        <f t="shared" si="2"/>
-        <v>27.588888888888889</v>
-      </c>
-      <c r="S60" s="22">
-        <f t="shared" si="3"/>
-        <v>1.3851801276566062E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q61" s="22">
-        <v>45</v>
-      </c>
-      <c r="R61" s="22">
-        <f t="shared" si="2"/>
-        <v>28.125</v>
-      </c>
-      <c r="S61" s="22">
-        <f t="shared" si="3"/>
-        <v>9.0440009570020335E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q62" s="22">
-        <v>46</v>
-      </c>
-      <c r="R62" s="22">
-        <f t="shared" si="2"/>
-        <v>28.661111111111111</v>
-      </c>
-      <c r="S62" s="22">
-        <f t="shared" si="3"/>
-        <v>5.8248352716092243E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q63" s="22">
-        <v>47</v>
-      </c>
-      <c r="R63" s="22">
-        <f t="shared" si="2"/>
-        <v>29.197222222222223</v>
-      </c>
-      <c r="S63" s="22">
-        <f t="shared" si="3"/>
-        <v>3.7006277153207371E-5</v>
-      </c>
-    </row>
-    <row r="64" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q64" s="22">
-        <v>48</v>
-      </c>
-      <c r="R64" s="22">
-        <f t="shared" si="2"/>
-        <v>29.733333333333334</v>
-      </c>
-      <c r="S64" s="22">
-        <f t="shared" si="3"/>
-        <v>2.3191874236100344E-5</v>
-      </c>
-    </row>
-    <row r="65" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q65" s="22">
-        <v>49</v>
-      </c>
-      <c r="R65" s="22">
-        <f t="shared" si="2"/>
-        <v>30.269444444444442</v>
-      </c>
-      <c r="S65" s="22">
-        <f t="shared" si="3"/>
-        <v>1.4337221619160989E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q66" s="22">
-        <v>50</v>
-      </c>
-      <c r="R66" s="22">
-        <f t="shared" si="2"/>
-        <v>30.805555555555554</v>
-      </c>
-      <c r="S66" s="22">
-        <f t="shared" si="3"/>
-        <v>8.7430477560682488E-6</v>
-      </c>
-    </row>
-    <row r="67" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q67" s="22">
-        <v>51</v>
-      </c>
-      <c r="R67" s="22">
-        <f t="shared" si="2"/>
-        <v>31.341666666666665</v>
-      </c>
-      <c r="S67" s="22">
-        <f t="shared" si="3"/>
-        <v>5.2593176714057407E-6</v>
-      </c>
-    </row>
-    <row r="68" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q68" s="22">
-        <v>52</v>
-      </c>
-      <c r="R68" s="22">
-        <f t="shared" si="2"/>
-        <v>31.877777777777776</v>
-      </c>
-      <c r="S68" s="22">
-        <f t="shared" si="3"/>
-        <v>3.1207908055827327E-6</v>
-      </c>
-    </row>
-    <row r="69" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q69" s="22">
-        <v>53</v>
-      </c>
-      <c r="R69" s="22">
-        <f t="shared" si="2"/>
-        <v>32.413888888888891</v>
-      </c>
-      <c r="S69" s="22">
-        <f t="shared" si="3"/>
-        <v>1.8267058216608562E-6</v>
-      </c>
-    </row>
-    <row r="70" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q70" s="22">
-        <v>54</v>
-      </c>
-      <c r="R70" s="22">
-        <f t="shared" si="2"/>
-        <v>32.950000000000003</v>
-      </c>
-      <c r="S70" s="22">
-        <f t="shared" si="3"/>
-        <v>1.0547299270150139E-6</v>
-      </c>
-    </row>
-    <row r="71" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q71" s="22">
-        <v>55</v>
-      </c>
-      <c r="R71" s="22">
-        <f t="shared" si="2"/>
-        <v>33.486111111111114</v>
-      </c>
-      <c r="S71" s="22">
-        <f t="shared" si="3"/>
-        <v>6.0073457172521041E-7</v>
-      </c>
-    </row>
-    <row r="72" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q72" s="22">
-        <v>56</v>
-      </c>
-      <c r="R72" s="22">
-        <f t="shared" si="2"/>
-        <v>34.022222222222226</v>
-      </c>
-      <c r="S72" s="22">
-        <f t="shared" si="3"/>
-        <v>3.3751469317222889E-7</v>
-      </c>
-    </row>
-    <row r="73" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q73" s="22">
-        <v>57</v>
-      </c>
-      <c r="R73" s="22">
-        <f t="shared" si="2"/>
-        <v>34.558333333333337</v>
-      </c>
-      <c r="S73" s="22">
-        <f t="shared" si="3"/>
-        <v>1.8705591372989595E-7</v>
-      </c>
-    </row>
-    <row r="74" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q74" s="22">
-        <v>58</v>
-      </c>
-      <c r="R74" s="22">
-        <f t="shared" si="2"/>
-        <v>35.094444444444449</v>
-      </c>
-      <c r="S74" s="22">
-        <f t="shared" si="3"/>
-        <v>1.0226308799905979E-7</v>
-      </c>
-    </row>
-    <row r="75" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q75" s="22">
-        <v>59</v>
-      </c>
-      <c r="R75" s="22">
-        <f t="shared" si="2"/>
-        <v>35.630555555555553</v>
-      </c>
-      <c r="S75" s="22">
-        <f t="shared" si="3"/>
-        <v>5.5148672608571495E-8</v>
-      </c>
-    </row>
-    <row r="76" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q76" s="22">
-        <v>60</v>
-      </c>
-      <c r="R76" s="22">
-        <f t="shared" si="2"/>
-        <v>36.166666666666664</v>
-      </c>
-      <c r="S76" s="22">
-        <f t="shared" si="3"/>
-        <v>2.933728538839023E-8</v>
-      </c>
-    </row>
-    <row r="77" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q77" s="22">
-        <v>61</v>
-      </c>
-      <c r="R77" s="22">
-        <f t="shared" si="2"/>
-        <v>36.702777777777776</v>
-      </c>
-      <c r="S77" s="22">
-        <f t="shared" si="3"/>
-        <v>1.5394780053405221E-8</v>
-      </c>
-    </row>
-    <row r="78" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q78" s="22">
-        <v>62</v>
-      </c>
-      <c r="R78" s="22">
-        <f t="shared" si="2"/>
-        <v>37.238888888888887</v>
-      </c>
-      <c r="S78" s="22">
-        <f t="shared" si="3"/>
-        <v>7.9688518398249191E-9</v>
-      </c>
-    </row>
-    <row r="79" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q79" s="22">
-        <v>63</v>
-      </c>
-      <c r="R79" s="22">
-        <f t="shared" si="2"/>
-        <v>37.774999999999999</v>
-      </c>
-      <c r="S79" s="22">
-        <f t="shared" si="3"/>
-        <v>4.0689908863730104E-9</v>
-      </c>
-    </row>
-    <row r="80" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q80" s="22">
-        <v>64</v>
-      </c>
-      <c r="R80" s="22">
-        <f t="shared" si="2"/>
-        <v>38.31111111111111</v>
-      </c>
-      <c r="S80" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0494927337898716E-9</v>
-      </c>
-    </row>
-    <row r="81" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q81" s="22">
-        <v>65</v>
-      </c>
-      <c r="R81" s="22">
-        <f t="shared" si="2"/>
-        <v>38.847222222222221</v>
-      </c>
-      <c r="S81" s="22">
-        <f t="shared" si="3"/>
-        <v>1.0182976691523043E-9</v>
-      </c>
-    </row>
-    <row r="82" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q82" s="22">
-        <v>66</v>
-      </c>
-      <c r="R82" s="22">
-        <f t="shared" ref="R82:R116" si="4">$K$16+Q82*$K$24</f>
-        <v>39.383333333333333</v>
-      </c>
-      <c r="S82" s="22">
-        <f t="shared" ref="S82:S116" si="5">_xlfn.NORM.DIST(R82,$K$18,$K$23,FALSE)</f>
-        <v>4.9908189730091192E-10</v>
-      </c>
-    </row>
-    <row r="83" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q83" s="22">
-        <v>67</v>
-      </c>
-      <c r="R83" s="22">
-        <f t="shared" si="4"/>
-        <v>39.919444444444444</v>
-      </c>
-      <c r="S83" s="22">
-        <f t="shared" si="5"/>
-        <v>2.4128903478108116E-10</v>
-      </c>
-    </row>
-    <row r="84" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q84" s="22">
-        <v>68</v>
-      </c>
-      <c r="R84" s="22">
-        <f t="shared" si="4"/>
-        <v>40.455555555555556</v>
-      </c>
-      <c r="S84" s="22">
-        <f t="shared" si="5"/>
-        <v>1.1507263444026756E-10</v>
-      </c>
-    </row>
-    <row r="85" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q85" s="22">
-        <v>69</v>
-      </c>
-      <c r="R85" s="22">
-        <f t="shared" si="4"/>
-        <v>40.991666666666667</v>
-      </c>
-      <c r="S85" s="22">
-        <f t="shared" si="5"/>
-        <v>5.4134636691247029E-11</v>
-      </c>
-    </row>
-    <row r="86" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q86" s="22">
-        <v>70</v>
-      </c>
-      <c r="R86" s="22">
-        <f t="shared" si="4"/>
-        <v>41.527777777777779</v>
-      </c>
-      <c r="S86" s="22">
-        <f t="shared" si="5"/>
-        <v>2.5121588539181667E-11</v>
-      </c>
-    </row>
-    <row r="87" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q87" s="22">
-        <v>71</v>
-      </c>
-      <c r="R87" s="22">
-        <f t="shared" si="4"/>
-        <v>42.06388888888889</v>
-      </c>
-      <c r="S87" s="22">
-        <f t="shared" si="5"/>
-        <v>1.1499730714386075E-11</v>
-      </c>
-    </row>
-    <row r="88" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q88" s="22">
-        <v>72</v>
-      </c>
-      <c r="R88" s="22">
-        <f t="shared" si="4"/>
-        <v>42.6</v>
-      </c>
-      <c r="S88" s="22">
-        <f t="shared" si="5"/>
-        <v>5.1927443793313395E-12</v>
-      </c>
-    </row>
-    <row r="89" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q89" s="22">
-        <v>73</v>
-      </c>
-      <c r="R89" s="22">
-        <f t="shared" si="4"/>
-        <v>43.136111111111113</v>
-      </c>
-      <c r="S89" s="22">
-        <f t="shared" si="5"/>
-        <v>2.3129961979204713E-12</v>
-      </c>
-    </row>
-    <row r="90" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q90" s="22">
-        <v>74</v>
-      </c>
-      <c r="R90" s="22">
-        <f t="shared" si="4"/>
-        <v>43.672222222222224</v>
-      </c>
-      <c r="S90" s="22">
-        <f t="shared" si="5"/>
-        <v>1.0162992250472103E-12</v>
-      </c>
-    </row>
-    <row r="91" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q91" s="22">
-        <v>75</v>
-      </c>
-      <c r="R91" s="22">
-        <f t="shared" si="4"/>
-        <v>44.208333333333329</v>
-      </c>
-      <c r="S91" s="22">
-        <f t="shared" si="5"/>
-        <v>4.4049093050794241E-13</v>
-      </c>
-    </row>
-    <row r="92" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q92" s="22">
-        <v>76</v>
-      </c>
-      <c r="R92" s="22">
-        <f t="shared" si="4"/>
-        <v>44.74444444444444</v>
-      </c>
-      <c r="S92" s="22">
-        <f t="shared" si="5"/>
-        <v>1.8833066868833231E-13</v>
-      </c>
-    </row>
-    <row r="93" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q93" s="22">
-        <v>77</v>
-      </c>
-      <c r="R93" s="22">
-        <f t="shared" si="4"/>
-        <v>45.280555555555551</v>
-      </c>
-      <c r="S93" s="22">
-        <f t="shared" si="5"/>
-        <v>7.9428036530540623E-14</v>
-      </c>
-    </row>
-    <row r="94" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q94" s="22">
-        <v>78</v>
-      </c>
-      <c r="R94" s="22">
-        <f t="shared" si="4"/>
-        <v>45.816666666666663</v>
-      </c>
-      <c r="S94" s="22">
-        <f t="shared" si="5"/>
-        <v>3.3044204888345509E-14</v>
-      </c>
-    </row>
-    <row r="95" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q95" s="22">
-        <v>79</v>
-      </c>
-      <c r="R95" s="22">
-        <f t="shared" si="4"/>
-        <v>46.352777777777774</v>
-      </c>
-      <c r="S95" s="22">
-        <f t="shared" si="5"/>
-        <v>1.3560805491018738E-14</v>
-      </c>
-    </row>
-    <row r="96" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q96" s="22">
-        <v>80</v>
-      </c>
-      <c r="R96" s="22">
-        <f t="shared" si="4"/>
-        <v>46.888888888888886</v>
-      </c>
-      <c r="S96" s="22">
-        <f t="shared" si="5"/>
-        <v>5.4896463570682697E-15</v>
-      </c>
-    </row>
-    <row r="97" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q97" s="22">
-        <v>81</v>
-      </c>
-      <c r="R97" s="22">
-        <f t="shared" si="4"/>
-        <v>47.424999999999997</v>
-      </c>
-      <c r="S97" s="22">
-        <f t="shared" si="5"/>
-        <v>2.1921584932049371E-15</v>
-      </c>
-    </row>
-    <row r="98" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q98" s="22">
-        <v>82</v>
-      </c>
-      <c r="R98" s="22">
-        <f t="shared" si="4"/>
-        <v>47.961111111111109</v>
-      </c>
-      <c r="S98" s="22">
-        <f t="shared" si="5"/>
-        <v>8.6351171483679956E-16</v>
-      </c>
-    </row>
-    <row r="99" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q99" s="22">
-        <v>83</v>
-      </c>
-      <c r="R99" s="22">
-        <f t="shared" si="4"/>
-        <v>48.49722222222222</v>
-      </c>
-      <c r="S99" s="22">
-        <f t="shared" si="5"/>
-        <v>3.3553143798787757E-16</v>
-      </c>
-    </row>
-    <row r="100" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q100" s="22">
-        <v>84</v>
-      </c>
-      <c r="R100" s="22">
-        <f t="shared" si="4"/>
-        <v>49.033333333333331</v>
-      </c>
-      <c r="S100" s="22">
-        <f t="shared" si="5"/>
-        <v>1.2860767984855557E-16</v>
-      </c>
-    </row>
-    <row r="101" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q101" s="22">
-        <v>85</v>
-      </c>
-      <c r="R101" s="22">
-        <f t="shared" si="4"/>
-        <v>49.569444444444443</v>
-      </c>
-      <c r="S101" s="22">
-        <f t="shared" si="5"/>
-        <v>4.8626083291983818E-17</v>
-      </c>
-    </row>
-    <row r="102" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q102" s="22">
-        <v>86</v>
-      </c>
-      <c r="R102" s="22">
-        <f t="shared" si="4"/>
-        <v>50.105555555555554</v>
-      </c>
-      <c r="S102" s="22">
-        <f t="shared" si="5"/>
-        <v>1.8135952802026471E-17</v>
-      </c>
-    </row>
-    <row r="103" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q103" s="22">
-        <v>87</v>
-      </c>
-      <c r="R103" s="22">
-        <f t="shared" si="4"/>
-        <v>50.641666666666666</v>
-      </c>
-      <c r="S103" s="22">
-        <f t="shared" si="5"/>
-        <v>6.6723706769089518E-18</v>
-      </c>
-    </row>
-    <row r="104" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q104" s="22">
-        <v>88</v>
-      </c>
-      <c r="R104" s="22">
-        <f t="shared" si="4"/>
-        <v>51.177777777777777</v>
-      </c>
-      <c r="S104" s="22">
-        <f t="shared" si="5"/>
-        <v>2.4215233115874945E-18</v>
-      </c>
-    </row>
-    <row r="105" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q105" s="22">
-        <v>89</v>
-      </c>
-      <c r="R105" s="22">
-        <f t="shared" si="4"/>
-        <v>51.713888888888889</v>
-      </c>
-      <c r="S105" s="22">
-        <f t="shared" si="5"/>
-        <v>8.6689369528143836E-19</v>
-      </c>
-    </row>
-    <row r="106" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q106" s="22">
-        <v>90</v>
-      </c>
-      <c r="R106" s="22">
-        <f t="shared" si="4"/>
-        <v>52.25</v>
-      </c>
-      <c r="S106" s="22">
-        <f t="shared" si="5"/>
-        <v>3.0613411946327699E-19</v>
-      </c>
-    </row>
-    <row r="107" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q107" s="22">
-        <v>91</v>
-      </c>
-      <c r="R107" s="22">
-        <f t="shared" si="4"/>
-        <v>52.786111111111111</v>
-      </c>
-      <c r="S107" s="22">
-        <f t="shared" si="5"/>
-        <v>1.0664152026376834E-19</v>
-      </c>
-    </row>
-    <row r="108" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="22">
-        <v>92</v>
-      </c>
-      <c r="R108" s="22">
-        <f t="shared" si="4"/>
-        <v>53.322222222222223</v>
-      </c>
-      <c r="S108" s="22">
-        <f t="shared" si="5"/>
-        <v>3.6644569229157645E-20</v>
-      </c>
-    </row>
-    <row r="109" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="22">
-        <v>93</v>
-      </c>
-      <c r="R109" s="22">
-        <f t="shared" si="4"/>
-        <v>53.858333333333334</v>
-      </c>
-      <c r="S109" s="22">
-        <f t="shared" si="5"/>
-        <v>1.2421144519774623E-20</v>
-      </c>
-    </row>
-    <row r="110" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q110" s="22">
-        <v>94</v>
-      </c>
-      <c r="R110" s="22">
-        <f t="shared" si="4"/>
-        <v>54.394444444444446</v>
-      </c>
-      <c r="S110" s="22">
-        <f t="shared" si="5"/>
-        <v>4.1531948790622856E-21</v>
-      </c>
-    </row>
-    <row r="111" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q111" s="22">
-        <v>95</v>
-      </c>
-      <c r="R111" s="22">
-        <f t="shared" si="4"/>
-        <v>54.930555555555557</v>
-      </c>
-      <c r="S111" s="22">
-        <f t="shared" si="5"/>
-        <v>1.3698458736757369E-21</v>
-      </c>
-    </row>
-    <row r="112" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q112" s="22">
-        <v>96</v>
-      </c>
-      <c r="R112" s="22">
-        <f t="shared" si="4"/>
-        <v>55.466666666666669</v>
-      </c>
-      <c r="S112" s="22">
-        <f t="shared" si="5"/>
-        <v>4.4568683197253461E-22</v>
-      </c>
-    </row>
-    <row r="113" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q113" s="22">
-        <v>97</v>
-      </c>
-      <c r="R113" s="22">
-        <f t="shared" si="4"/>
-        <v>56.002777777777773</v>
-      </c>
-      <c r="S113" s="22">
-        <f t="shared" si="5"/>
-        <v>1.4303970335908094E-22</v>
-      </c>
-    </row>
-    <row r="114" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q114" s="22">
-        <v>98</v>
-      </c>
-      <c r="R114" s="22">
-        <f t="shared" si="4"/>
-        <v>56.538888888888884</v>
-      </c>
-      <c r="S114" s="22">
-        <f t="shared" si="5"/>
-        <v>4.5284763056822045E-23</v>
-      </c>
-    </row>
-    <row r="115" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q115" s="22">
-        <v>99</v>
-      </c>
-      <c r="R115" s="22">
-        <f t="shared" si="4"/>
-        <v>57.074999999999996</v>
-      </c>
-      <c r="S115" s="22">
-        <f t="shared" si="5"/>
-        <v>1.4142178015004769E-23</v>
-      </c>
-    </row>
-    <row r="116" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q116" s="22">
-        <v>100</v>
-      </c>
-      <c r="R116" s="22">
-        <f t="shared" si="4"/>
-        <v>57.611111111111107</v>
-      </c>
-      <c r="S116" s="22">
-        <f t="shared" si="5"/>
-        <v>4.3566151813566707E-24</v>
-      </c>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="J10:Q10"/>
+  <mergeCells count="5">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M8:R8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5805,11 +5401,11 @@
         <v>15</v>
       </c>
       <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7" t="s">
         <v>10</v>

--- a/Aulas_MAF105/Aula1/CompanhiaMB.xlsx
+++ b/Aulas_MAF105/Aula1/CompanhiaMB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="53">
   <si>
     <t>Estado Civil</t>
   </si>
@@ -145,12 +145,48 @@
   <si>
     <t>fracm</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Erro padrão</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>Desvio padrão</t>
+  </si>
+  <si>
+    <t>Variância da amostra</t>
+  </si>
+  <si>
+    <t>Curtose</t>
+  </si>
+  <si>
+    <t>Assimetria</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Contagem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +246,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -237,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -445,12 +489,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +591,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,6 +611,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,11 +859,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="-27"/>
-        <c:axId val="399202112"/>
-        <c:axId val="399198584"/>
+        <c:axId val="405133128"/>
+        <c:axId val="405135872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399202112"/>
+        <c:axId val="405133128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +906,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399198584"/>
+        <c:crossAx val="405135872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399198584"/>
+        <c:axId val="405135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +965,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399202112"/>
+        <c:crossAx val="405133128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,6 +1054,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1170,7 +1234,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1556,11 +1622,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="-27"/>
-        <c:axId val="399195448"/>
-        <c:axId val="399201720"/>
+        <c:axId val="405130776"/>
+        <c:axId val="405131952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399195448"/>
+        <c:axId val="405130776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1669,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399201720"/>
+        <c:crossAx val="405131952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1611,7 +1677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399201720"/>
+        <c:axId val="405131952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1728,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399195448"/>
+        <c:crossAx val="405130776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3740,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,19 +3841,19 @@
       <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4030,18 +4096,18 @@
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="M8" s="37" t="s">
+      <c r="K8" s="35"/>
+      <c r="M8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -5044,12 +5110,12 @@
       <c r="L38" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M38" s="35" t="s">
+      <c r="M38" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="37"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L39" s="24">
@@ -5401,11 +5467,11 @@
         <v>15</v>
       </c>
       <c r="J1" s="8"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7" t="s">
         <v>10</v>
@@ -7140,12 +7206,399 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.28353965655989855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1.2680278927697548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1.607894736842105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1.1146702272884967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0.74388143725068123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B3:B37">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>